--- a/templates/3M_methSlurryTemplate_DONOTSAVE.xlsx
+++ b/templates/3M_methSlurryTemplate_DONOTSAVE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jones\Documents\Summer2019\Limno\gc2019underc\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brittnibertolet/OneDrive - nd.edu/underc-field-2019/gc2019underc/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5012BF5D-4A86-4BDD-9BE4-C4FA5A8F13A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{5012BF5D-4A86-4BDD-9BE4-C4FA5A8F13A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0EDA6E9D-8E36-FF4A-BF53-3EE03AD232A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleRunFile" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="36">
   <si>
     <t>projectID</t>
   </si>
@@ -105,12 +105,6 @@
     <t>methSlurry</t>
   </si>
   <si>
-    <t>runYYMMDDRR</t>
-  </si>
-  <si>
-    <t>YYMMDDRR</t>
-  </si>
-  <si>
     <t>lab</t>
   </si>
   <si>
@@ -139,6 +133,9 @@
   </si>
   <si>
     <t>standard038</t>
+  </si>
+  <si>
+    <t>run19060901</t>
   </si>
 </sst>
 </file>
@@ -299,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -660,11 +663,15 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1010,34 +1017,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="P2" sqref="P2:P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>34</v>
       </c>
@@ -1104,10 +1111,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="5">
-        <v>43620</v>
-      </c>
-      <c r="E2" s="6">
-        <v>43620</v>
+        <v>43625</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43625</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1121,14 +1128,14 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6">
-        <v>43608.583333333336</v>
+      <c r="J2" s="9">
+        <v>43625</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L2" s="5">
-        <v>43608</v>
+        <v>43625</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1139,15 +1146,15 @@
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
-        <v>26</v>
+      <c r="P2">
+        <v>19060901</v>
       </c>
       <c r="Q2" t="str">
         <f>CONCATENATE(O2,"_",P2)</f>
-        <v>1_YYMMDDRR</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1_19060901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>34</v>
       </c>
@@ -1157,8 +1164,12 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E3" s="9">
+        <v>43625</v>
+      </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -1169,9 +1180,17 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J3" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="5">
+        <v>43625</v>
+      </c>
       <c r="M3">
         <v>1</v>
       </c>
@@ -1181,12 +1200,15 @@
       <c r="O3">
         <v>2</v>
       </c>
+      <c r="P3">
+        <v>19060901</v>
+      </c>
       <c r="Q3" t="str">
         <f t="shared" ref="Q3:Q8" si="0">CONCATENATE(O3,"_",P3)</f>
-        <v>2_</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2_19060901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34</v>
       </c>
@@ -1196,8 +1218,12 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E4" s="9">
+        <v>43625</v>
+      </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
@@ -1208,9 +1234,17 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J4" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5">
+        <v>43625</v>
+      </c>
       <c r="M4">
         <v>1</v>
       </c>
@@ -1220,12 +1254,15 @@
       <c r="O4">
         <v>3</v>
       </c>
+      <c r="P4">
+        <v>19060901</v>
+      </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>3_</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3_19060901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>34</v>
       </c>
@@ -1235,8 +1272,12 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E5" s="9">
+        <v>43625</v>
+      </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
@@ -1247,9 +1288,17 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="J5" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="5">
+        <v>43625</v>
+      </c>
       <c r="M5">
         <v>1</v>
       </c>
@@ -1259,12 +1308,15 @@
       <c r="O5">
         <v>4</v>
       </c>
+      <c r="P5">
+        <v>19060901</v>
+      </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>4_</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4_19060901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>34</v>
       </c>
@@ -1274,8 +1326,12 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43625</v>
+      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
@@ -1286,9 +1342,17 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="J6" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="5">
+        <v>43625</v>
+      </c>
       <c r="M6">
         <v>1</v>
       </c>
@@ -1298,12 +1362,15 @@
       <c r="O6">
         <v>5</v>
       </c>
+      <c r="P6">
+        <v>19060901</v>
+      </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
-        <v>5_</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5_19060901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>34</v>
       </c>
@@ -1313,8 +1380,12 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43625</v>
+      </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
@@ -1325,9 +1396,17 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="J7" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="5">
+        <v>43625</v>
+      </c>
       <c r="M7">
         <v>1</v>
       </c>
@@ -1337,12 +1416,15 @@
       <c r="O7">
         <v>6</v>
       </c>
+      <c r="P7">
+        <v>19060901</v>
+      </c>
       <c r="Q7" t="str">
         <f t="shared" si="0"/>
-        <v>6_</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6_19060901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>34</v>
       </c>
@@ -1352,8 +1434,12 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43625</v>
+      </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1452,15 @@
       <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="J8" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="5">
+        <v>43625</v>
+      </c>
       <c r="M8">
         <v>2</v>
       </c>
@@ -1376,622 +1470,935 @@
       <c r="O8">
         <v>7</v>
       </c>
+      <c r="P8">
+        <v>19060901</v>
+      </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
-        <v>7_</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+        <v>7_19060901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>34</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43621</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="13">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="15">
+        <v>43625</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43621</v>
+      </c>
+      <c r="E10" s="12">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="13">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="15">
+        <v>43625</v>
+      </c>
+      <c r="M10" s="10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43621</v>
+      </c>
+      <c r="E11" s="12">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="13">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="15">
+        <v>43625</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>34</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43621</v>
+      </c>
+      <c r="E12" s="12">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="13">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="15">
+        <v>43625</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43621</v>
+      </c>
+      <c r="E13" s="12">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="13">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="15">
+        <v>43625</v>
+      </c>
+      <c r="M13" s="10">
+        <v>2</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43621</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="13">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="15">
+        <v>43625</v>
+      </c>
+      <c r="M14" s="10">
+        <v>3</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E15" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E18" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E19" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E20" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E21" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E22" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="P22">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>33</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="D23" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E23" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="H23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9">
+      <c r="J23" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23">
+        <v>22</v>
+      </c>
+      <c r="P23">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E24" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M24" s="7">
         <v>1</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="N24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>23</v>
+      </c>
+      <c r="P24">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>33</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="D25" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9">
+      <c r="J25" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M25" s="7">
         <v>2</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="N25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="D26" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E26" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="9">
+      <c r="J26" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M26" s="7">
         <v>3</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>33</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="9">
-        <v>1</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>33</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9">
-        <v>2</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>33</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="9">
-        <v>3</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>33</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9">
-        <v>1</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>33</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9">
-        <v>2</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>33</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9">
-        <v>3</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>33</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9">
-        <v>1</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="9">
-        <v>2</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>33</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="9">
-        <v>3</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>33</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="4">
-        <v>2</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>33</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="4">
-        <v>3</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>33</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>33</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="4">
-        <v>2</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>33</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="4">
-        <v>3</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E27" s="6">
+        <v>43608.583333333336</v>
+      </c>
       <c r="F27" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>16</v>
@@ -1999,32 +2406,49 @@
       <c r="I27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="L27" s="7"/>
+      <c r="J27" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="5">
+        <v>43625</v>
+      </c>
       <c r="M27" s="4">
         <v>1</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>26</v>
+      </c>
+      <c r="P27">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E28" s="6">
+        <v>43608.583333333336</v>
+      </c>
       <c r="F28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>16</v>
@@ -2032,32 +2456,49 @@
       <c r="I28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="L28" s="7"/>
+      <c r="J28" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="5">
+        <v>43625</v>
+      </c>
       <c r="M28" s="4">
         <v>2</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>27</v>
+      </c>
+      <c r="P28">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E29" s="6">
+        <v>43608.583333333336</v>
+      </c>
       <c r="F29" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>16</v>
@@ -2065,32 +2506,49 @@
       <c r="I29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="L29" s="7"/>
+      <c r="J29" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="5">
+        <v>43625</v>
+      </c>
       <c r="M29" s="4">
         <v>3</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>28</v>
+      </c>
+      <c r="P29">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E30" s="6">
+        <v>43608.583333333336</v>
+      </c>
       <c r="F30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>16</v>
@@ -2098,32 +2556,49 @@
       <c r="I30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="L30" s="7"/>
+      <c r="J30" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="5">
+        <v>43625</v>
+      </c>
       <c r="M30" s="4">
         <v>1</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E31" s="6">
+        <v>43608.583333333336</v>
+      </c>
       <c r="F31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>16</v>
@@ -2131,32 +2606,49 @@
       <c r="I31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="L31" s="7"/>
+      <c r="J31" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="5">
+        <v>43625</v>
+      </c>
       <c r="M31" s="4">
         <v>2</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E32" s="6">
+        <v>43608.583333333336</v>
+      </c>
       <c r="F32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>16</v>
@@ -2164,196 +2656,329 @@
       <c r="I32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="L32" s="7"/>
+      <c r="J32" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="5">
+        <v>43625</v>
+      </c>
       <c r="M32" s="4">
         <v>3</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="O32">
+        <v>31</v>
+      </c>
+      <c r="P32">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E33" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33">
+        <v>32</v>
+      </c>
+      <c r="P33">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E34" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M34" s="4">
+        <v>2</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34">
+        <v>33</v>
+      </c>
+      <c r="P34">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E35" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="M33">
+      <c r="P35">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E36" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36">
+        <v>35</v>
+      </c>
+      <c r="P36">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E37" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M37" s="4">
+        <v>2</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37">
+        <v>36</v>
+      </c>
+      <c r="P37">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="8">
+        <v>43608</v>
+      </c>
+      <c r="E38" s="6">
+        <v>43608.583333333336</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="9">
+        <v>43625.583333333336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M38" s="4">
         <v>3</v>
       </c>
-      <c r="N33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34">
-        <v>2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36">
-        <v>2</v>
-      </c>
-      <c r="N36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" t="s">
-        <v>35</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38">
+        <v>37</v>
+      </c>
+      <c r="P38">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>34</v>
       </c>
@@ -2363,6 +2988,12 @@
       <c r="C39" t="s">
         <v>16</v>
       </c>
+      <c r="D39" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E39" s="9">
+        <v>43625</v>
+      </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
@@ -2375,12 +3006,326 @@
       <c r="I39" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="1"/>
+      <c r="J39" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="5">
+        <v>43625</v>
+      </c>
       <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39">
+        <v>38</v>
+      </c>
+      <c r="P39">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E40" s="9">
+        <v>43625</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40">
+        <v>39</v>
+      </c>
+      <c r="P40">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E41" s="9">
+        <v>43625</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41">
+        <v>40</v>
+      </c>
+      <c r="P41">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E42" s="9">
+        <v>43625</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42">
+        <v>41</v>
+      </c>
+      <c r="P42">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E43" s="9">
+        <v>43625</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43">
+        <v>42</v>
+      </c>
+      <c r="P43">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E44" s="9">
+        <v>43625</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44">
+        <v>43</v>
+      </c>
+      <c r="P44">
+        <v>19060901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E45" s="9">
+        <v>43625</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="9">
+        <v>43625</v>
+      </c>
+      <c r="K45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="5">
+        <v>43625</v>
+      </c>
+      <c r="M45">
         <v>4</v>
       </c>
-      <c r="N39" t="s">
-        <v>23</v>
+      <c r="N45" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45">
+        <v>44</v>
+      </c>
+      <c r="P45">
+        <v>19060901</v>
       </c>
     </row>
   </sheetData>
